--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>Efnb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Epha4</t>
-  </si>
-  <si>
-    <t>Efnb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="H2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="I2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="J2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="N2">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="O2">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="P2">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="Q2">
-        <v>81.303527583842</v>
+        <v>31.70719348876312</v>
       </c>
       <c r="R2">
-        <v>731.731748254578</v>
+        <v>285.364741398868</v>
       </c>
       <c r="S2">
-        <v>0.2148382251779627</v>
+        <v>0.1405805063632364</v>
       </c>
       <c r="T2">
-        <v>0.2379698328919535</v>
+        <v>0.1509272490030412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="H3">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="I3">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="J3">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.529465</v>
       </c>
       <c r="O3">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="P3">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="Q3">
-        <v>65.75769818000499</v>
+        <v>41.58523203582945</v>
       </c>
       <c r="R3">
-        <v>591.819283620045</v>
+        <v>374.267088322465</v>
       </c>
       <c r="S3">
-        <v>0.1737595844683624</v>
+        <v>0.1843768663695008</v>
       </c>
       <c r="T3">
-        <v>0.19246825952439</v>
+        <v>0.1979470265176634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="H4">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="I4">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="J4">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="N4">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="O4">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="P4">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="Q4">
-        <v>0.8878608621429999</v>
+        <v>1.621046838841333</v>
       </c>
       <c r="R4">
-        <v>7.990747759286998</v>
+        <v>14.589421549572</v>
       </c>
       <c r="S4">
-        <v>0.002346103022787984</v>
+        <v>0.00718725186206091</v>
       </c>
       <c r="T4">
-        <v>0.002598707673262942</v>
+        <v>0.00771623448723411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="H5">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="I5">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="J5">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="N5">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="O5">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="P5">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="Q5">
-        <v>19.6293972031605</v>
+        <v>13.28545775479284</v>
       </c>
       <c r="R5">
-        <v>117.776383218963</v>
+        <v>79.71274652875701</v>
       </c>
       <c r="S5">
-        <v>0.05186914986058205</v>
+        <v>0.05890386921497982</v>
       </c>
       <c r="T5">
-        <v>0.03830259695590563</v>
+        <v>0.0421594675119515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="H6">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="I6">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="J6">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="N6">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="O6">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="P6">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="Q6">
-        <v>2.436601728075</v>
+        <v>3.860627104807334</v>
       </c>
       <c r="R6">
-        <v>21.929415552675</v>
+        <v>34.745643943266</v>
       </c>
       <c r="S6">
-        <v>0.006438529868035194</v>
+        <v>0.01711690167298443</v>
       </c>
       <c r="T6">
-        <v>0.007131765659937835</v>
+        <v>0.01837670775124401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H7">
         <v>18.878545</v>
       </c>
       <c r="I7">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="J7">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="N7">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="O7">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="P7">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="Q7">
-        <v>66.21105537130779</v>
+        <v>40.83065976389555</v>
       </c>
       <c r="R7">
-        <v>595.8994983417701</v>
+        <v>367.47593787506</v>
       </c>
       <c r="S7">
-        <v>0.1749575454578252</v>
+        <v>0.181031311610335</v>
       </c>
       <c r="T7">
-        <v>0.1937952048398124</v>
+        <v>0.1943552385148143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H8">
         <v>18.878545</v>
       </c>
       <c r="I8">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="J8">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.529465</v>
       </c>
       <c r="O8">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="P8">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="Q8">
-        <v>53.55101709204724</v>
+        <v>53.55101709204722</v>
       </c>
       <c r="R8">
-        <v>481.9591538284251</v>
+        <v>481.959153828425</v>
       </c>
       <c r="S8">
-        <v>0.1415043825332937</v>
+        <v>0.2374296893143285</v>
       </c>
       <c r="T8">
-        <v>0.1567401435989013</v>
+        <v>0.2549045437869442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H9">
         <v>18.878545</v>
       </c>
       <c r="I9">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="J9">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="N9">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="O9">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="P9">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="Q9">
-        <v>0.723046175883889</v>
+        <v>2.087488820526666</v>
       </c>
       <c r="R9">
-        <v>6.507415582955001</v>
+        <v>18.78739938474</v>
       </c>
       <c r="S9">
-        <v>0.001910593079598175</v>
+        <v>0.009255320421885802</v>
       </c>
       <c r="T9">
-        <v>0.002116306423123151</v>
+        <v>0.009936513148612427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H10">
         <v>18.878545</v>
       </c>
       <c r="I10">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="J10">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="N10">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="O10">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="P10">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="Q10">
-        <v>15.9855684463825</v>
+        <v>17.10823146759417</v>
       </c>
       <c r="R10">
-        <v>95.91341067829501</v>
+        <v>102.649388805565</v>
       </c>
       <c r="S10">
-        <v>0.0422406168039895</v>
+        <v>0.07585293991870309</v>
       </c>
       <c r="T10">
-        <v>0.03119243953218532</v>
+        <v>0.05429048377988913</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H11">
         <v>18.878545</v>
       </c>
       <c r="I11">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="J11">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="N11">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="O11">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="P11">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="Q11">
-        <v>1.984292400708334</v>
+        <v>4.971488625996666</v>
       </c>
       <c r="R11">
-        <v>17.858631606375</v>
+        <v>44.74339763397</v>
       </c>
       <c r="S11">
-        <v>0.005243337777228491</v>
+        <v>0.02204213970149602</v>
       </c>
       <c r="T11">
-        <v>0.005807887370180717</v>
+        <v>0.02366444390726353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1166,10 +1166,10 @@
         <v>0.063684</v>
       </c>
       <c r="I12">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="J12">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="N12">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="O12">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="P12">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="Q12">
-        <v>0.223353274856</v>
+        <v>0.137736236368</v>
       </c>
       <c r="R12">
-        <v>2.010179473704</v>
+        <v>1.239626127312</v>
       </c>
       <c r="S12">
-        <v>0.0005901935941004002</v>
+        <v>0.0006106825525268273</v>
       </c>
       <c r="T12">
-        <v>0.0006537396724704478</v>
+        <v>0.0006556288638545733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1228,10 +1228,10 @@
         <v>0.063684</v>
       </c>
       <c r="I13">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="J13">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>25.529465</v>
       </c>
       <c r="O13">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="P13">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="Q13">
         <v>0.18064649434</v>
@@ -1258,10 +1258,10 @@
         <v>1.62581844906</v>
       </c>
       <c r="S13">
-        <v>0.0004773442602303448</v>
+        <v>0.0008009341998704718</v>
       </c>
       <c r="T13">
-        <v>0.0005287398634244551</v>
+        <v>0.0008598830559520213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1290,40 +1290,40 @@
         <v>0.063684</v>
       </c>
       <c r="I14">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="J14">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="N14">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="O14">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="P14">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="Q14">
-        <v>0.002439090124</v>
+        <v>0.007041837071999999</v>
       </c>
       <c r="R14">
-        <v>0.021951811116</v>
+        <v>0.063376533648</v>
       </c>
       <c r="S14">
-        <v>6.445105260025607E-06</v>
+        <v>3.122146467046987E-05</v>
       </c>
       <c r="T14">
-        <v>7.139049023649584E-06</v>
+        <v>3.351936832823896E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1352,10 +1352,10 @@
         <v>0.063684</v>
       </c>
       <c r="I15">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="J15">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="N15">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="O15">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="P15">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="Q15">
-        <v>0.053924968314</v>
+        <v>0.057712107198</v>
       </c>
       <c r="R15">
-        <v>0.323549809884</v>
+        <v>0.3462726431880001</v>
       </c>
       <c r="S15">
-        <v>0.0001424925194470902</v>
+        <v>0.0002558787568524316</v>
       </c>
       <c r="T15">
-        <v>0.0001052231154025742</v>
+        <v>0.0001831409766503965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1414,40 +1414,40 @@
         <v>0.063684</v>
       </c>
       <c r="I16">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="J16">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="N16">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="O16">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="P16">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="Q16">
-        <v>0.0066937191</v>
+        <v>0.016770587016</v>
       </c>
       <c r="R16">
-        <v>0.0602434719</v>
+        <v>0.150935283144</v>
       </c>
       <c r="S16">
-        <v>1.768763021753102E-05</v>
+        <v>7.435592227844216E-05</v>
       </c>
       <c r="T16">
-        <v>1.959205538788019E-05</v>
+        <v>7.982852734626375E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="H17">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="I17">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="J17">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="N17">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="O17">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="P17">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="Q17">
-        <v>33.15576674076467</v>
+        <v>5.006629140166668</v>
       </c>
       <c r="R17">
-        <v>198.934600444588</v>
+        <v>30.039774841</v>
       </c>
       <c r="S17">
-        <v>0.08761152551043844</v>
+        <v>0.02219794255669461</v>
       </c>
       <c r="T17">
-        <v>0.06469643245239629</v>
+        <v>0.01588780924790481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="H18">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="I18">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="J18">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.529465</v>
       </c>
       <c r="O18">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="P18">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="Q18">
-        <v>26.81614152617833</v>
+        <v>6.566391143541667</v>
       </c>
       <c r="R18">
-        <v>160.89684915707</v>
+        <v>39.39834686125</v>
       </c>
       <c r="S18">
-        <v>0.07085956074494076</v>
+        <v>0.02911347522023048</v>
       </c>
       <c r="T18">
-        <v>0.05232600115832169</v>
+        <v>0.02083748706265242</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="H19">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="I19">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="J19">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="N19">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="O19">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="P19">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="Q19">
-        <v>0.3620717147003333</v>
+        <v>0.2559665315</v>
       </c>
       <c r="R19">
-        <v>2.172430288202</v>
+        <v>1.535799189</v>
       </c>
       <c r="S19">
-        <v>0.0009567462431829392</v>
+        <v>0.001134881414940235</v>
       </c>
       <c r="T19">
-        <v>0.0007065060028979192</v>
+        <v>0.0008122725515444187</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="H20">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="I20">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="J20">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="N20">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="O20">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="P20">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="Q20">
-        <v>8.004913615324499</v>
+        <v>2.0978002975625</v>
       </c>
       <c r="R20">
-        <v>32.019654461298</v>
+        <v>8.391201190250001</v>
       </c>
       <c r="S20">
-        <v>0.02115235937390009</v>
+        <v>0.009301038522529561</v>
       </c>
       <c r="T20">
-        <v>0.01041325846471567</v>
+        <v>0.004438042714272413</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="H21">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="I21">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="J21">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="N21">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="O21">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="P21">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="Q21">
-        <v>0.9936518246750001</v>
+        <v>0.60960072575</v>
       </c>
       <c r="R21">
-        <v>5.96191094805</v>
+        <v>3.6576043545</v>
       </c>
       <c r="S21">
-        <v>0.002625647383354698</v>
+        <v>0.002702792939895559</v>
       </c>
       <c r="T21">
-        <v>0.001938900362610159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.02332</v>
-      </c>
-      <c r="I22">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="J22">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>10.52163533333333</v>
-      </c>
-      <c r="N22">
-        <v>31.564906</v>
-      </c>
-      <c r="O22">
-        <v>0.4782136086181363</v>
-      </c>
-      <c r="P22">
-        <v>0.4973545982298819</v>
-      </c>
-      <c r="Q22">
-        <v>0.08178817865777778</v>
-      </c>
-      <c r="R22">
-        <v>0.73609360792</v>
-      </c>
-      <c r="S22">
-        <v>0.0002161188778095178</v>
-      </c>
-      <c r="T22">
-        <v>0.000239388373249338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.02332</v>
-      </c>
-      <c r="I23">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="J23">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.509821666666667</v>
-      </c>
-      <c r="N23">
-        <v>25.529465</v>
-      </c>
-      <c r="O23">
-        <v>0.3867756673737729</v>
-      </c>
-      <c r="P23">
-        <v>0.4022567597096229</v>
-      </c>
-      <c r="Q23">
-        <v>0.06614968042222223</v>
-      </c>
-      <c r="R23">
-        <v>0.5953471238000001</v>
-      </c>
-      <c r="S23">
-        <v>0.0001747953669457264</v>
-      </c>
-      <c r="T23">
-        <v>0.0001936155645854264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.02332</v>
-      </c>
-      <c r="I24">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="J24">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.1148996666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.344699</v>
-      </c>
-      <c r="O24">
-        <v>0.005222247538993557</v>
-      </c>
-      <c r="P24">
-        <v>0.005431273346901209</v>
-      </c>
-      <c r="Q24">
-        <v>0.0008931534088888888</v>
-      </c>
-      <c r="R24">
-        <v>0.00803838068</v>
-      </c>
-      <c r="S24">
-        <v>2.360088164433722E-06</v>
-      </c>
-      <c r="T24">
-        <v>2.61419859354796E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.02332</v>
-      </c>
-      <c r="I25">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="J25">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.5402755</v>
-      </c>
-      <c r="N25">
-        <v>5.080551</v>
-      </c>
-      <c r="O25">
-        <v>0.1154567969002575</v>
-      </c>
-      <c r="P25">
-        <v>0.08005204898729699</v>
-      </c>
-      <c r="Q25">
-        <v>0.01974640822</v>
-      </c>
-      <c r="R25">
-        <v>0.11847844932</v>
-      </c>
-      <c r="S25">
-        <v>5.217834233883146E-05</v>
-      </c>
-      <c r="T25">
-        <v>3.853091908780903E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.02332</v>
-      </c>
-      <c r="I26">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="J26">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.315325</v>
-      </c>
-      <c r="N26">
-        <v>0.945975</v>
-      </c>
-      <c r="O26">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="P26">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="Q26">
-        <v>0.002451126333333334</v>
-      </c>
-      <c r="R26">
-        <v>0.022060137</v>
-      </c>
-      <c r="S26">
-        <v>6.476910003655916E-06</v>
-      </c>
-      <c r="T26">
-        <v>7.174278180474941E-06</v>
+        <v>0.001934479222836529</v>
       </c>
     </row>
   </sheetData>
